--- a/config_9.15/task_zajindan_server.xlsx
+++ b/config_9.15/task_zajindan_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1654">
   <si>
     <t>id|任务id</t>
   </si>
@@ -9956,6 +9956,14 @@
   <si>
     <t>682,683,684</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_spend</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_2d_leiji_dapao_new_task</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10844,11 +10852,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T459"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D434" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E431" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D459" sqref="D459"/>
+      <selection pane="bottomRight" activeCell="F459" sqref="F459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28567,7 +28575,7 @@
         <v>12</v>
       </c>
       <c r="F457" s="98" t="s">
-        <v>1492</v>
+        <v>1653</v>
       </c>
       <c r="G457" s="97">
         <v>21404</v>
@@ -28605,7 +28613,7 @@
         <v>12</v>
       </c>
       <c r="F458" s="98" t="s">
-        <v>1492</v>
+        <v>1653</v>
       </c>
       <c r="G458" s="97">
         <v>21405</v>
@@ -28643,7 +28651,7 @@
         <v>12</v>
       </c>
       <c r="F459" s="98" t="s">
-        <v>1492</v>
+        <v>1653</v>
       </c>
       <c r="G459" s="97">
         <v>21406</v>
@@ -28677,7 +28685,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K459"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="G442" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -40383,7 +40391,7 @@
   <dimension ref="A1:I638"/>
   <sheetViews>
     <sheetView topLeftCell="A616" workbookViewId="0">
-      <selection activeCell="B637" sqref="B637"/>
+      <selection activeCell="C637" sqref="C637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49618,7 +49626,7 @@
         <v>451</v>
       </c>
       <c r="C636" s="86" t="s">
-        <v>1643</v>
+        <v>1652</v>
       </c>
       <c r="D636" s="10">
         <v>315</v>
@@ -49632,7 +49640,7 @@
         <v>452</v>
       </c>
       <c r="C637" s="86" t="s">
-        <v>1192</v>
+        <v>1652</v>
       </c>
       <c r="D637" s="10">
         <v>316</v>
@@ -49646,7 +49654,7 @@
         <v>453</v>
       </c>
       <c r="C638" s="86" t="s">
-        <v>1192</v>
+        <v>1652</v>
       </c>
       <c r="D638" s="10">
         <v>317</v>
